--- a/WorkBot/main/backend/ordering/OrderFiles/Hillcrest Foods/Hillcrest Foods_Bakery_20250323.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Hillcrest Foods/Hillcrest Foods_Bakery_20250323.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,438 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>70328</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Corn Meal - Coarse</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>102.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>33069</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nuts - Almonds (sliced)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>110.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>110.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>33422</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nuts - Walnut Halves &amp; Pieces</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>125.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>125.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>47170</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Seeds - Sesame</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>536.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>17617</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Flour - Whole Wheat (Medium)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>18580</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Flour - Victoria Patent (Org)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>400.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17616</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Flour - Millers Choice</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>840.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>67214-BC</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Extract - Vanilla</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>149.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>298.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>47183</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Seeds - Sunflower Shelled Raw</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>57.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>57.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>28173</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sugar - 10X (Powdered)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>41.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>41.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>72020</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Baking Soda</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>37.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>17297</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Flour - Cake</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>70135</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Condensed Milk</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>163.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>163.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>27046</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jam - Raspberry (Baking)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>168.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>504.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>39278</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Croissant - Spinach Feta</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>59.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>299.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>9090</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sugared Egg Yolk</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>119.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>119.40</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
